--- a/실무_엑셀_예제_파일/Chapter03/03-005.xlsx
+++ b/실무_엑셀_예제_파일/Chapter03/03-005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 드라이브\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5E7B57-E76D-451E-AA48-EEF581EDC6E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D23C1-68C9-48FE-A719-EEC9B0D87AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="2304" windowWidth="10824" windowHeight="9480" xr2:uid="{20F19812-85AA-40F3-9D1C-B969FC482DF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{20F19812-85AA-40F3-9D1C-B969FC482DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,22 +538,22 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.296875" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" customWidth="1"/>
+    <col min="3" max="4" width="13.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="11.4140625" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -601,13 +601,15 @@
       <c r="F5" s="6">
         <v>280000</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="6">
+        <v>280000</v>
+      </c>
       <c r="H5" s="7">
         <f>F5/D5</f>
         <v>0.11396011396011396</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -623,13 +625,15 @@
       <c r="F6" s="6">
         <v>590000</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="6">
+        <v>590000</v>
+      </c>
       <c r="H6" s="7">
         <f t="shared" ref="H6:H16" si="0">F6/D6</f>
         <v>0.45807453416149069</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,13 +649,15 @@
       <c r="F7" s="6">
         <v>-390000</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="6">
+        <v>-390000</v>
+      </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>-0.32500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -667,13 +673,15 @@
       <c r="F8" s="6">
         <v>310000</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="6">
+        <v>310000</v>
+      </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>0.12653061224489795</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -689,13 +697,15 @@
       <c r="F9" s="6">
         <v>170000</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="6">
+        <v>170000</v>
+      </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>0.11805555555555555</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -711,13 +721,15 @@
       <c r="F10" s="6">
         <v>-350000</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="6">
+        <v>-350000</v>
+      </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>-0.17491254372813594</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -733,13 +745,15 @@
       <c r="F11" s="6">
         <v>-400000</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="6">
+        <v>-400000</v>
+      </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>-0.17219113215669393</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -755,13 +769,15 @@
       <c r="F12" s="6">
         <v>420000</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="6">
+        <v>420000</v>
+      </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -777,13 +793,15 @@
       <c r="F13" s="6">
         <v>130000</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="6">
+        <v>130000</v>
+      </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>6.8710359408033828E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -799,13 +817,15 @@
       <c r="F14" s="6">
         <v>70000</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="6">
+        <v>70000</v>
+      </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>2.4778761061946906E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -821,13 +841,15 @@
       <c r="F15" s="6">
         <v>370000</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="6">
+        <v>370000</v>
+      </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>0.17444601603017446</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -843,7 +865,9 @@
       <c r="F16" s="6">
         <v>30000</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="6">
+        <v>30000</v>
+      </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>1.6163793103448277E-2</v>
@@ -855,6 +879,62 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D5:D16">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0CB1EE53-C604-413F-BC97-F65D3AAB0581}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{826B0989-235B-4FC2-A6A0-D99FF6949CBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0CB1EE53-C604-413F-BC97-F65D3AAB0581}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{826B0989-235B-4FC2-A6A0-D99FF6949CBE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G5:G16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>